--- a/data/pca/factorExposure/factorExposure_2014-11-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.002528998193804137</v>
+        <v>0.00896823165867461</v>
       </c>
       <c r="C2">
-        <v>0.08182996779449599</v>
+        <v>0.07421002221184687</v>
       </c>
       <c r="D2">
-        <v>0.1585315667795177</v>
+        <v>0.0002499852337890916</v>
       </c>
       <c r="E2">
-        <v>0.1319352022726286</v>
+        <v>0.1753396675184351</v>
       </c>
       <c r="F2">
-        <v>-0.1647014706130907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03642865869255897</v>
+      </c>
+      <c r="G2">
+        <v>-0.05654662610169876</v>
+      </c>
+      <c r="H2">
+        <v>0.0660100745611112</v>
+      </c>
+      <c r="I2">
+        <v>0.2244997217257459</v>
+      </c>
+      <c r="J2">
+        <v>-0.09925509768610304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0242080242460465</v>
+        <v>0.01565379105116419</v>
       </c>
       <c r="C4">
-        <v>0.1535695457518362</v>
+        <v>0.1518396174060807</v>
       </c>
       <c r="D4">
-        <v>0.05846364789010649</v>
+        <v>-0.03404468115643521</v>
       </c>
       <c r="E4">
-        <v>0.09232289035417229</v>
+        <v>0.09235439005111284</v>
       </c>
       <c r="F4">
-        <v>0.02957111726436178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0593874321224242</v>
+      </c>
+      <c r="G4">
+        <v>0.0003653858354236214</v>
+      </c>
+      <c r="H4">
+        <v>0.1126192677646851</v>
+      </c>
+      <c r="I4">
+        <v>0.06541336222955671</v>
+      </c>
+      <c r="J4">
+        <v>-0.1251045631251012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01653836883987997</v>
+        <v>0.03291872782769029</v>
       </c>
       <c r="C6">
-        <v>0.07120729700310002</v>
+        <v>0.07255820106809345</v>
       </c>
       <c r="D6">
-        <v>0.0669158549960162</v>
+        <v>-0.0110214748984551</v>
       </c>
       <c r="E6">
-        <v>0.09360981936255269</v>
+        <v>0.1093192194054406</v>
       </c>
       <c r="F6">
-        <v>0.02264911058069839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03132106399061895</v>
+      </c>
+      <c r="G6">
+        <v>0.04949123739401136</v>
+      </c>
+      <c r="H6">
+        <v>0.03755112703040227</v>
+      </c>
+      <c r="I6">
+        <v>0.06440550904628049</v>
+      </c>
+      <c r="J6">
+        <v>0.02042575990806392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01680390743713356</v>
+        <v>0.007577097482332111</v>
       </c>
       <c r="C7">
-        <v>0.0528412989445111</v>
+        <v>0.0674240785520273</v>
       </c>
       <c r="D7">
-        <v>0.02888706908120725</v>
+        <v>-0.008029103920389779</v>
       </c>
       <c r="E7">
-        <v>0.06265642913981641</v>
+        <v>0.04398675512626309</v>
       </c>
       <c r="F7">
-        <v>0.001436523463556473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0145830400816981</v>
+      </c>
+      <c r="G7">
+        <v>0.06752213029207861</v>
+      </c>
+      <c r="H7">
+        <v>0.08483966037347659</v>
+      </c>
+      <c r="I7">
+        <v>0.01710030055466773</v>
+      </c>
+      <c r="J7">
+        <v>-0.03289582198963242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.01528726829807486</v>
+        <v>-0.009496022750245159</v>
       </c>
       <c r="C8">
-        <v>0.08034702972879676</v>
+        <v>0.07430423166945664</v>
       </c>
       <c r="D8">
-        <v>0.05694590476015984</v>
+        <v>-0.03292055964506133</v>
       </c>
       <c r="E8">
-        <v>0.1238602723119809</v>
+        <v>0.08738587389927717</v>
       </c>
       <c r="F8">
-        <v>-0.08759525859952741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02830641897728156</v>
+      </c>
+      <c r="G8">
+        <v>-0.05143812871507442</v>
+      </c>
+      <c r="H8">
+        <v>0.03156236150154008</v>
+      </c>
+      <c r="I8">
+        <v>0.008494051737486016</v>
+      </c>
+      <c r="J8">
+        <v>0.00771842561708287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0102650426859532</v>
+        <v>0.008771734276361205</v>
       </c>
       <c r="C9">
-        <v>0.1301413271038426</v>
+        <v>0.1174491647860002</v>
       </c>
       <c r="D9">
-        <v>0.03974073501226198</v>
+        <v>-0.02429450828848109</v>
       </c>
       <c r="E9">
-        <v>0.06879089473528316</v>
+        <v>0.05579858763744532</v>
       </c>
       <c r="F9">
-        <v>0.02855263582160401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.008013575008640828</v>
+      </c>
+      <c r="G9">
+        <v>0.006271613283768905</v>
+      </c>
+      <c r="H9">
+        <v>0.1030642354291347</v>
+      </c>
+      <c r="I9">
+        <v>0.0363742156161344</v>
+      </c>
+      <c r="J9">
+        <v>-0.05211218671846168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2672420170705233</v>
+        <v>0.2523484927554697</v>
       </c>
       <c r="C10">
-        <v>-0.08985101018487184</v>
+        <v>-0.08453640511115344</v>
       </c>
       <c r="D10">
-        <v>0.02634789794185476</v>
+        <v>-0.004432990486525958</v>
       </c>
       <c r="E10">
-        <v>-0.01662875370998218</v>
+        <v>0.01545847530294751</v>
       </c>
       <c r="F10">
-        <v>-0.01405146674273215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0102363488251012</v>
+      </c>
+      <c r="G10">
+        <v>0.008697741055274086</v>
+      </c>
+      <c r="H10">
+        <v>0.02534042816584895</v>
+      </c>
+      <c r="I10">
+        <v>-0.1838596758445329</v>
+      </c>
+      <c r="J10">
+        <v>-0.01220213281079611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.005404393136697531</v>
+        <v>0.0114312150557637</v>
       </c>
       <c r="C11">
-        <v>0.06415129101890923</v>
+        <v>0.08036914496148172</v>
       </c>
       <c r="D11">
-        <v>0.01304528183075092</v>
+        <v>-0.02201692609025304</v>
       </c>
       <c r="E11">
-        <v>0.0396676471475596</v>
+        <v>0.01574115862700164</v>
       </c>
       <c r="F11">
-        <v>0.0672758311737145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.006257536511893228</v>
+      </c>
+      <c r="G11">
+        <v>0.03385655996820486</v>
+      </c>
+      <c r="H11">
+        <v>0.02899174727407968</v>
+      </c>
+      <c r="I11">
+        <v>-0.02964095862792042</v>
+      </c>
+      <c r="J11">
+        <v>0.01358352057070174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.005510765026448911</v>
+        <v>0.01265905633353468</v>
       </c>
       <c r="C12">
-        <v>0.06130939429546768</v>
+        <v>0.06329477568504001</v>
       </c>
       <c r="D12">
-        <v>0.005006804725575841</v>
+        <v>-0.01189037868415112</v>
       </c>
       <c r="E12">
-        <v>0.03144842106116039</v>
+        <v>0.01427639027272752</v>
       </c>
       <c r="F12">
-        <v>0.05163774988843449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02474486151156707</v>
+      </c>
+      <c r="G12">
+        <v>0.03345212672100746</v>
+      </c>
+      <c r="H12">
+        <v>0.02976396704751798</v>
+      </c>
+      <c r="I12">
+        <v>-0.01658836548926468</v>
+      </c>
+      <c r="J12">
+        <v>-0.000451125122290358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.00628520188180204</v>
+        <v>0.0009693186686900687</v>
       </c>
       <c r="C13">
-        <v>0.09651094939006885</v>
+        <v>0.1119744593874504</v>
       </c>
       <c r="D13">
-        <v>0.05585502324959078</v>
+        <v>-0.01182131793863102</v>
       </c>
       <c r="E13">
-        <v>0.132800749199969</v>
+        <v>0.1455695743935775</v>
       </c>
       <c r="F13">
-        <v>0.1147097557682134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1107120043040253</v>
+      </c>
+      <c r="G13">
+        <v>0.07853999622529258</v>
+      </c>
+      <c r="H13">
+        <v>0.06758836130817629</v>
+      </c>
+      <c r="I13">
+        <v>-0.1749121999634188</v>
+      </c>
+      <c r="J13">
+        <v>-0.04424608668030951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0004371766525373933</v>
+        <v>0.01143082305304204</v>
       </c>
       <c r="C14">
-        <v>0.05998607774641836</v>
+        <v>0.07694722706853582</v>
       </c>
       <c r="D14">
-        <v>0.03435999064991064</v>
+        <v>-0.02550592457443633</v>
       </c>
       <c r="E14">
-        <v>0.05060571425985843</v>
+        <v>0.07794621605108615</v>
       </c>
       <c r="F14">
-        <v>0.03347164585253511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.04363150119093496</v>
+      </c>
+      <c r="G14">
+        <v>0.09845416679818279</v>
+      </c>
+      <c r="H14">
+        <v>0.1841851672704402</v>
+      </c>
+      <c r="I14">
+        <v>-0.06378773987404934</v>
+      </c>
+      <c r="J14">
+        <v>0.1539404602275763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.001115786061776665</v>
+        <v>-0.001295802365963947</v>
       </c>
       <c r="C15">
-        <v>0.074316949827112</v>
+        <v>0.07284966711525212</v>
       </c>
       <c r="D15">
-        <v>0.0496071143068266</v>
+        <v>-0.01518830689274104</v>
       </c>
       <c r="E15">
-        <v>0.09689375298522959</v>
+        <v>0.0633840002520656</v>
       </c>
       <c r="F15">
-        <v>0.02301918287314345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.003611646921331061</v>
+      </c>
+      <c r="G15">
+        <v>0.04284140375319715</v>
+      </c>
+      <c r="H15">
+        <v>0.06309088298257691</v>
+      </c>
+      <c r="I15">
+        <v>-0.02117938074402228</v>
+      </c>
+      <c r="J15">
+        <v>0.04926857951939204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.009473140079952314</v>
+        <v>0.01209056055827771</v>
       </c>
       <c r="C16">
-        <v>0.06015654386909773</v>
+        <v>0.0672061773737709</v>
       </c>
       <c r="D16">
-        <v>0.01161272170678669</v>
+        <v>-0.01259634781220963</v>
       </c>
       <c r="E16">
-        <v>0.02782911656208895</v>
+        <v>0.008339906757050531</v>
       </c>
       <c r="F16">
-        <v>0.05546064818046034</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.006061577649026273</v>
+      </c>
+      <c r="G16">
+        <v>0.03042562219561171</v>
+      </c>
+      <c r="H16">
+        <v>0.02746522298579002</v>
+      </c>
+      <c r="I16">
+        <v>-0.01213837441829558</v>
+      </c>
+      <c r="J16">
+        <v>0.002088962446566852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.003952628065659882</v>
+        <v>0.007326816401966847</v>
       </c>
       <c r="C20">
-        <v>0.0733325458935714</v>
+        <v>0.08544871721992402</v>
       </c>
       <c r="D20">
-        <v>0.04439125730439779</v>
+        <v>-0.003624175879017184</v>
       </c>
       <c r="E20">
-        <v>0.05725885379059379</v>
+        <v>0.03434559895414339</v>
       </c>
       <c r="F20">
-        <v>0.09268263417745666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01163883691521615</v>
+      </c>
+      <c r="G20">
+        <v>0.07528672620509402</v>
+      </c>
+      <c r="H20">
+        <v>0.06203007622231044</v>
+      </c>
+      <c r="I20">
+        <v>0.0009834748765365521</v>
+      </c>
+      <c r="J20">
+        <v>-0.007272028205013509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.001880438201952037</v>
+        <v>0.008032285898576696</v>
       </c>
       <c r="C21">
-        <v>0.09397705703101765</v>
+        <v>0.08664019542742941</v>
       </c>
       <c r="D21">
-        <v>0.07919810127216807</v>
+        <v>-0.004111917370710964</v>
       </c>
       <c r="E21">
-        <v>0.02261507742843486</v>
+        <v>0.06351447830345749</v>
       </c>
       <c r="F21">
-        <v>-0.01230191729769312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07725195254963955</v>
+      </c>
+      <c r="G21">
+        <v>0.006818716390892713</v>
+      </c>
+      <c r="H21">
+        <v>0.1510749148542694</v>
+      </c>
+      <c r="I21">
+        <v>-0.05779237497659843</v>
+      </c>
+      <c r="J21">
+        <v>-0.006205845334525855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.01189480152058761</v>
+        <v>-0.0152167149192676</v>
       </c>
       <c r="C22">
-        <v>0.1355753795417947</v>
+        <v>0.1480980730683988</v>
       </c>
       <c r="D22">
-        <v>0.2833918975574519</v>
+        <v>0.02190897431980637</v>
       </c>
       <c r="E22">
-        <v>0.1650292937311016</v>
+        <v>0.4107694437411794</v>
       </c>
       <c r="F22">
-        <v>-0.2100376310497801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.177671826704476</v>
+      </c>
+      <c r="G22">
+        <v>-0.2414847385565248</v>
+      </c>
+      <c r="H22">
+        <v>-0.3550563583072807</v>
+      </c>
+      <c r="I22">
+        <v>-0.1291294952840226</v>
+      </c>
+      <c r="J22">
+        <v>0.1450665986094287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01243170840380679</v>
+        <v>-0.01148364657576607</v>
       </c>
       <c r="C23">
-        <v>0.1371776271861164</v>
+        <v>0.152455866262261</v>
       </c>
       <c r="D23">
-        <v>0.2817506918504147</v>
+        <v>0.02391389395539555</v>
       </c>
       <c r="E23">
-        <v>0.1630632305844459</v>
+        <v>0.4008177336238825</v>
       </c>
       <c r="F23">
-        <v>-0.2092990358389094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.1695104669643911</v>
+      </c>
+      <c r="G23">
+        <v>-0.2336709806454327</v>
+      </c>
+      <c r="H23">
+        <v>-0.3318315231102127</v>
+      </c>
+      <c r="I23">
+        <v>-0.1295106670640679</v>
+      </c>
+      <c r="J23">
+        <v>0.131087196763691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.001581109029481587</v>
+        <v>0.01201471801030651</v>
       </c>
       <c r="C24">
-        <v>0.07728564266034743</v>
+        <v>0.0777830679103967</v>
       </c>
       <c r="D24">
-        <v>0.003792507531819785</v>
+        <v>-0.02683961826696746</v>
       </c>
       <c r="E24">
-        <v>0.04817234959761884</v>
+        <v>0.0177476634064093</v>
       </c>
       <c r="F24">
-        <v>0.05569072631952136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.001153388726832685</v>
+      </c>
+      <c r="G24">
+        <v>0.03686371302585219</v>
+      </c>
+      <c r="H24">
+        <v>0.04144462130844334</v>
+      </c>
+      <c r="I24">
+        <v>-0.01442591543350842</v>
+      </c>
+      <c r="J24">
+        <v>0.003613820646068219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.00988003152165145</v>
+        <v>0.01837746907506589</v>
       </c>
       <c r="C25">
-        <v>0.07275025781138532</v>
+        <v>0.07565895513241985</v>
       </c>
       <c r="D25">
-        <v>0.007093681798102601</v>
+        <v>-0.01724010596788542</v>
       </c>
       <c r="E25">
-        <v>0.02234272415259536</v>
+        <v>0.01202862948089502</v>
       </c>
       <c r="F25">
-        <v>0.05496683348220223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.003172043424767338</v>
+      </c>
+      <c r="G25">
+        <v>0.03029271589923448</v>
+      </c>
+      <c r="H25">
+        <v>0.02903281454541467</v>
+      </c>
+      <c r="I25">
+        <v>-0.03656846500263886</v>
+      </c>
+      <c r="J25">
+        <v>0.01216273215303535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.005131051945208093</v>
+        <v>0.0175151786893586</v>
       </c>
       <c r="C26">
-        <v>0.05494375256906647</v>
+        <v>0.06429685845189846</v>
       </c>
       <c r="D26">
-        <v>0.01270510476172997</v>
+        <v>-0.0465004051987056</v>
       </c>
       <c r="E26">
-        <v>0.05703827362275826</v>
+        <v>0.02305568298746805</v>
       </c>
       <c r="F26">
-        <v>0.01804925564095483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01287728339668348</v>
+      </c>
+      <c r="G26">
+        <v>0.02659172434436314</v>
+      </c>
+      <c r="H26">
+        <v>0.1159159984886835</v>
+      </c>
+      <c r="I26">
+        <v>0.02878816489479095</v>
+      </c>
+      <c r="J26">
+        <v>-0.06792382845691365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3450085861856252</v>
+        <v>0.3196223445119347</v>
       </c>
       <c r="C28">
-        <v>-0.1018973784594667</v>
+        <v>-0.1062128251137612</v>
       </c>
       <c r="D28">
-        <v>0.01332740613132498</v>
+        <v>0.01665108252334486</v>
       </c>
       <c r="E28">
-        <v>-0.04742378496706623</v>
+        <v>0.01369876867395627</v>
       </c>
       <c r="F28">
-        <v>-0.03215208734017575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04399391148589488</v>
+      </c>
+      <c r="G28">
+        <v>-0.08602912395047102</v>
+      </c>
+      <c r="H28">
+        <v>0.08092612298097468</v>
+      </c>
+      <c r="I28">
+        <v>-0.09214698014288858</v>
+      </c>
+      <c r="J28">
+        <v>-0.1217111553057895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.001289636604109069</v>
+        <v>0.006409171404886382</v>
       </c>
       <c r="C29">
-        <v>0.06022988241240783</v>
+        <v>0.08134911109925635</v>
       </c>
       <c r="D29">
-        <v>0.05389277507692863</v>
+        <v>-0.0237767788830784</v>
       </c>
       <c r="E29">
-        <v>0.09036658444806522</v>
+        <v>0.1228121146642153</v>
       </c>
       <c r="F29">
-        <v>0.07434502278331591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.05817467060505243</v>
+      </c>
+      <c r="G29">
+        <v>0.1559876313500125</v>
+      </c>
+      <c r="H29">
+        <v>0.2599110119816163</v>
+      </c>
+      <c r="I29">
+        <v>-0.09350167743667814</v>
+      </c>
+      <c r="J29">
+        <v>0.2316162112343356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01732655535802853</v>
+        <v>0.01912591342811304</v>
       </c>
       <c r="C30">
-        <v>0.1767953439562136</v>
+        <v>0.1571204729419019</v>
       </c>
       <c r="D30">
-        <v>0.03795267387458658</v>
+        <v>-0.03584325751787931</v>
       </c>
       <c r="E30">
-        <v>0.0935401730721937</v>
+        <v>0.06808059737021593</v>
       </c>
       <c r="F30">
-        <v>-0.008853048022877815</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02070030640041913</v>
+      </c>
+      <c r="G30">
+        <v>-0.009445964315226318</v>
+      </c>
+      <c r="H30">
+        <v>0.03292970148260525</v>
+      </c>
+      <c r="I30">
+        <v>0.05969209347919384</v>
+      </c>
+      <c r="J30">
+        <v>-0.06935830635816549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.007563544981728982</v>
+        <v>0.006900007614181835</v>
       </c>
       <c r="C31">
-        <v>0.09781336514964732</v>
+        <v>0.09764134492334889</v>
       </c>
       <c r="D31">
-        <v>-0.03788316768292808</v>
+        <v>-0.03035450571969774</v>
       </c>
       <c r="E31">
-        <v>-0.005047638672295638</v>
+        <v>-0.01676189560694015</v>
       </c>
       <c r="F31">
-        <v>-0.0339902281724188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001907680536380996</v>
+      </c>
+      <c r="G31">
+        <v>-0.03269076214740445</v>
+      </c>
+      <c r="H31">
+        <v>0.04919197723902921</v>
+      </c>
+      <c r="I31">
+        <v>-0.05323410544954143</v>
+      </c>
+      <c r="J31">
+        <v>0.01628019428532051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03469242309660146</v>
+        <v>0.02619270888524208</v>
       </c>
       <c r="C32">
-        <v>0.08118453877793398</v>
+        <v>0.06961906584171468</v>
       </c>
       <c r="D32">
-        <v>0.09103443432569865</v>
+        <v>-0.004975855471017867</v>
       </c>
       <c r="E32">
-        <v>0.1036320946903919</v>
+        <v>0.1223891543899847</v>
       </c>
       <c r="F32">
-        <v>-0.01048617135368521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04261171442763707</v>
+      </c>
+      <c r="G32">
+        <v>0.004261570140734272</v>
+      </c>
+      <c r="H32">
+        <v>0.1024041970625218</v>
+      </c>
+      <c r="I32">
+        <v>-0.1715431279937862</v>
+      </c>
+      <c r="J32">
+        <v>-0.1600580077952193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.004010228200891103</v>
+        <v>0.01088604001882629</v>
       </c>
       <c r="C33">
-        <v>0.0934500213007536</v>
+        <v>0.1110979349435455</v>
       </c>
       <c r="D33">
-        <v>0.01337079477672216</v>
+        <v>-0.02009010337401612</v>
       </c>
       <c r="E33">
-        <v>0.06455274664865331</v>
+        <v>0.04485503501624709</v>
       </c>
       <c r="F33">
-        <v>0.02899756766313925</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0004202671973727156</v>
+      </c>
+      <c r="G33">
+        <v>0.03684431275469764</v>
+      </c>
+      <c r="H33">
+        <v>0.05426981868781712</v>
+      </c>
+      <c r="I33">
+        <v>-0.02753574401488269</v>
+      </c>
+      <c r="J33">
+        <v>-0.002723706256483039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.001719212339693477</v>
+        <v>0.01313856480901531</v>
       </c>
       <c r="C34">
-        <v>0.05843226331781655</v>
+        <v>0.05627499796067436</v>
       </c>
       <c r="D34">
-        <v>-0.001945589724411416</v>
+        <v>-0.01575316542345133</v>
       </c>
       <c r="E34">
-        <v>0.02352603197208692</v>
+        <v>0.004718911847330373</v>
       </c>
       <c r="F34">
-        <v>0.03938494680502854</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01165351810687701</v>
+      </c>
+      <c r="G34">
+        <v>0.02555342950413826</v>
+      </c>
+      <c r="H34">
+        <v>0.002013692373866776</v>
+      </c>
+      <c r="I34">
+        <v>-0.03035466483556416</v>
+      </c>
+      <c r="J34">
+        <v>-0.005276062031267522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.001964600687633293</v>
+        <v>0.006793233020368089</v>
       </c>
       <c r="C35">
-        <v>0.01020309792027312</v>
+        <v>0.03699794129037081</v>
       </c>
       <c r="D35">
-        <v>0.008145738819556096</v>
+        <v>-0.007027509153163262</v>
       </c>
       <c r="E35">
-        <v>0.01249655037438693</v>
+        <v>0.03995271190558543</v>
       </c>
       <c r="F35">
-        <v>0.01563379643532879</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01360073610009627</v>
+      </c>
+      <c r="G35">
+        <v>0.06537806657219984</v>
+      </c>
+      <c r="H35">
+        <v>0.1245774779201443</v>
+      </c>
+      <c r="I35">
+        <v>-0.1013222008636674</v>
+      </c>
+      <c r="J35">
+        <v>0.1402645248641593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.002068310124615719</v>
+        <v>0.009079028685853944</v>
       </c>
       <c r="C36">
-        <v>0.04638110200821771</v>
+        <v>0.05024863341156963</v>
       </c>
       <c r="D36">
-        <v>0.01140935410715425</v>
+        <v>-0.0338491156487163</v>
       </c>
       <c r="E36">
-        <v>0.06763400136873976</v>
+        <v>0.03649875511978267</v>
       </c>
       <c r="F36">
-        <v>0.01644342349446319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.006291036158888204</v>
+      </c>
+      <c r="G36">
+        <v>0.02411576003750075</v>
+      </c>
+      <c r="H36">
+        <v>0.06687167113016912</v>
+      </c>
+      <c r="I36">
+        <v>0.003262620593497166</v>
+      </c>
+      <c r="J36">
+        <v>-0.02831205257988205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.014660071590852</v>
+        <v>0.009424398977595241</v>
       </c>
       <c r="C38">
-        <v>0.04960088148002224</v>
+        <v>0.06464437714147461</v>
       </c>
       <c r="D38">
-        <v>0.02502791398846049</v>
+        <v>-0.02128088311170235</v>
       </c>
       <c r="E38">
-        <v>0.05962205896367653</v>
+        <v>0.04317503743439904</v>
       </c>
       <c r="F38">
-        <v>0.001139030230689059</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04332840374300224</v>
+      </c>
+      <c r="G38">
+        <v>0.02245648002824461</v>
+      </c>
+      <c r="H38">
+        <v>0.05625757740702723</v>
+      </c>
+      <c r="I38">
+        <v>-0.04985571178569167</v>
+      </c>
+      <c r="J38">
+        <v>0.005330988932581493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.001992021288360578</v>
+        <v>0.008473617315688039</v>
       </c>
       <c r="C39">
-        <v>0.1358639326913141</v>
+        <v>0.1328549788780067</v>
       </c>
       <c r="D39">
-        <v>0.02776923959978511</v>
+        <v>-0.03789370400139071</v>
       </c>
       <c r="E39">
-        <v>0.06294013847994148</v>
+        <v>0.02843612265803802</v>
       </c>
       <c r="F39">
-        <v>0.07323953758990531</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.02047248018888667</v>
+      </c>
+      <c r="G39">
+        <v>0.05764112686351397</v>
+      </c>
+      <c r="H39">
+        <v>0.03784539742591862</v>
+      </c>
+      <c r="I39">
+        <v>0.02047398727114304</v>
+      </c>
+      <c r="J39">
+        <v>0.006223767002727529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.006032898413971899</v>
+        <v>0.008642503219582057</v>
       </c>
       <c r="C40">
-        <v>0.03114622875001995</v>
+        <v>0.06069042035889861</v>
       </c>
       <c r="D40">
-        <v>0.04899611662628012</v>
+        <v>-0.01942674992297888</v>
       </c>
       <c r="E40">
-        <v>0.1222531424413295</v>
+        <v>0.1215300940326497</v>
       </c>
       <c r="F40">
-        <v>0.02113781827899214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02962551450931078</v>
+      </c>
+      <c r="G40">
+        <v>0.11564929029031</v>
+      </c>
+      <c r="H40">
+        <v>-0.0186310903144578</v>
+      </c>
+      <c r="I40">
+        <v>-0.1534748660474701</v>
+      </c>
+      <c r="J40">
+        <v>0.1383936704304694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.006566987509614789</v>
+        <v>0.01863351734777254</v>
       </c>
       <c r="C41">
-        <v>0.02140137152803152</v>
+        <v>0.04904351779975234</v>
       </c>
       <c r="D41">
-        <v>-0.002806250877898273</v>
+        <v>-0.009402643627840563</v>
       </c>
       <c r="E41">
-        <v>-0.01175883823491625</v>
+        <v>-0.004603954662616107</v>
       </c>
       <c r="F41">
-        <v>-0.01155560684847306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004960505754949562</v>
+      </c>
+      <c r="G41">
+        <v>0.01168858718731866</v>
+      </c>
+      <c r="H41">
+        <v>0.02845000162599028</v>
+      </c>
+      <c r="I41">
+        <v>-0.06915047218531481</v>
+      </c>
+      <c r="J41">
+        <v>0.03153324848660545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.00089290063878552</v>
+        <v>0.01180197831181618</v>
       </c>
       <c r="C43">
-        <v>0.0162561563039772</v>
+        <v>0.04263285694526874</v>
       </c>
       <c r="D43">
-        <v>0.01242912928680706</v>
+        <v>-0.0182062808000888</v>
       </c>
       <c r="E43">
-        <v>0.03123328233866561</v>
+        <v>0.01711777038889823</v>
       </c>
       <c r="F43">
-        <v>0.0261627682473903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.00977567091355273</v>
+      </c>
+      <c r="G43">
+        <v>0.02860674773936962</v>
+      </c>
+      <c r="H43">
+        <v>0.04334586684610905</v>
+      </c>
+      <c r="I43">
+        <v>-0.033701820743952</v>
+      </c>
+      <c r="J43">
+        <v>0.03759264535472066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01670160897444863</v>
+        <v>0.005260425111317973</v>
       </c>
       <c r="C44">
-        <v>0.07776237171369577</v>
+        <v>0.08573777138775743</v>
       </c>
       <c r="D44">
-        <v>0.06949701066039325</v>
+        <v>-0.03385907962785857</v>
       </c>
       <c r="E44">
-        <v>0.09599394906828808</v>
+        <v>0.09356554328169696</v>
       </c>
       <c r="F44">
-        <v>0.02121726435439362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01018288684987783</v>
+      </c>
+      <c r="G44">
+        <v>0.02919059664324211</v>
+      </c>
+      <c r="H44">
+        <v>0.03192352499449393</v>
+      </c>
+      <c r="I44">
+        <v>0.06382515054249206</v>
+      </c>
+      <c r="J44">
+        <v>-0.0121154531031088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.005843197541624635</v>
+        <v>-0.0004949012379459268</v>
       </c>
       <c r="C46">
-        <v>0.06314875625612268</v>
+        <v>0.06717648384320343</v>
       </c>
       <c r="D46">
-        <v>0.0330022379281383</v>
+        <v>-0.01680224854257429</v>
       </c>
       <c r="E46">
-        <v>0.05356844673522254</v>
+        <v>0.0405613845259546</v>
       </c>
       <c r="F46">
-        <v>0.04760379476073969</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.008164964749693741</v>
+      </c>
+      <c r="G46">
+        <v>0.06177700415217164</v>
+      </c>
+      <c r="H46">
+        <v>0.1108503785534564</v>
+      </c>
+      <c r="I46">
+        <v>-0.04609802798916993</v>
+      </c>
+      <c r="J46">
+        <v>0.08809693957364875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.0160842949436858</v>
+        <v>0.02405556745364347</v>
       </c>
       <c r="C47">
-        <v>0.1084213376219226</v>
+        <v>0.09615026110463974</v>
       </c>
       <c r="D47">
-        <v>-0.02934218279738109</v>
+        <v>-0.02812381907275925</v>
       </c>
       <c r="E47">
-        <v>-0.03160608527029444</v>
+        <v>-0.01696415204166902</v>
       </c>
       <c r="F47">
-        <v>-0.03056591039890536</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.001018438575397384</v>
+      </c>
+      <c r="G47">
+        <v>-0.006401170889462644</v>
+      </c>
+      <c r="H47">
+        <v>0.08038407470225216</v>
+      </c>
+      <c r="I47">
+        <v>-0.03168572716569601</v>
+      </c>
+      <c r="J47">
+        <v>0.006788820609633605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.009855468893912582</v>
+        <v>0.01563688078014679</v>
       </c>
       <c r="C48">
-        <v>0.05237934222001497</v>
+        <v>0.0578579588888395</v>
       </c>
       <c r="D48">
-        <v>-0.01191944561019767</v>
+        <v>-0.04521800269760375</v>
       </c>
       <c r="E48">
-        <v>0.07266177192633319</v>
+        <v>0.02776116396790082</v>
       </c>
       <c r="F48">
-        <v>0.02190873412167166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.00556534922686071</v>
+      </c>
+      <c r="G48">
+        <v>0.02669948415737576</v>
+      </c>
+      <c r="H48">
+        <v>0.108584448868342</v>
+      </c>
+      <c r="I48">
+        <v>0.02122776751227612</v>
+      </c>
+      <c r="J48">
+        <v>-0.06680183748805267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.00679818926650784</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01486571714697876</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.003187692161667548</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02241789093630257</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.002403762981667588</v>
+      </c>
+      <c r="G49">
+        <v>0.01528330039387111</v>
+      </c>
+      <c r="H49">
+        <v>-0.01148240653608364</v>
+      </c>
+      <c r="I49">
+        <v>0.03663301059629703</v>
+      </c>
+      <c r="J49">
+        <v>0.01284971379532484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.00788167321560625</v>
+        <v>0.01368938724052586</v>
       </c>
       <c r="C50">
-        <v>0.09289834957071835</v>
+        <v>0.08988020680686805</v>
       </c>
       <c r="D50">
-        <v>-0.01973201987319844</v>
+        <v>-0.01561770035312805</v>
       </c>
       <c r="E50">
-        <v>-0.003599702665666398</v>
+        <v>-0.007186459767704372</v>
       </c>
       <c r="F50">
-        <v>-0.04060882006392008</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01094449530679324</v>
+      </c>
+      <c r="G50">
+        <v>-0.02650073689141456</v>
+      </c>
+      <c r="H50">
+        <v>0.06165319909486591</v>
+      </c>
+      <c r="I50">
+        <v>-0.07061516864319285</v>
+      </c>
+      <c r="J50">
+        <v>-0.01591191239336903</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.002852088106552793</v>
+        <v>-0.00597998059106942</v>
       </c>
       <c r="C51">
-        <v>0.05735647608128127</v>
+        <v>0.03978111425181127</v>
       </c>
       <c r="D51">
-        <v>0.06601436985634186</v>
+        <v>-0.01096623918081798</v>
       </c>
       <c r="E51">
-        <v>0.06747141074535566</v>
+        <v>0.04864040375091325</v>
       </c>
       <c r="F51">
-        <v>0.01789352412143928</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.008887102158345919</v>
+      </c>
+      <c r="G51">
+        <v>0.02841104389867485</v>
+      </c>
+      <c r="H51">
+        <v>0.08706272537478126</v>
+      </c>
+      <c r="I51">
+        <v>0.07865123092934913</v>
+      </c>
+      <c r="J51">
+        <v>-0.08881553068468295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.03888429832664959</v>
+        <v>0.05104380849398241</v>
       </c>
       <c r="C53">
-        <v>0.1614051469867422</v>
+        <v>0.1467428582809497</v>
       </c>
       <c r="D53">
-        <v>-0.08042360842535766</v>
+        <v>-0.0464806254889252</v>
       </c>
       <c r="E53">
-        <v>-0.04131419312857561</v>
+        <v>-0.09090554818151821</v>
       </c>
       <c r="F53">
-        <v>-0.005816532883119277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.001772161820479373</v>
+      </c>
+      <c r="G53">
+        <v>-0.05536017772231596</v>
+      </c>
+      <c r="H53">
+        <v>0.004409495923291423</v>
+      </c>
+      <c r="I53">
+        <v>-0.06159076998698611</v>
+      </c>
+      <c r="J53">
+        <v>-0.03222983961694875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.003382088509759804</v>
+        <v>0.01228606943430393</v>
       </c>
       <c r="C54">
-        <v>0.05996858952004204</v>
+        <v>0.07210575046169604</v>
       </c>
       <c r="D54">
-        <v>0.03764514027940883</v>
+        <v>0.004734215406190958</v>
       </c>
       <c r="E54">
-        <v>0.02092456252279718</v>
+        <v>0.02079541464400496</v>
       </c>
       <c r="F54">
-        <v>0.01636010013537781</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.001635095475222775</v>
+      </c>
+      <c r="G54">
+        <v>0.02908599593377539</v>
+      </c>
+      <c r="H54">
+        <v>0.07968835645503887</v>
+      </c>
+      <c r="I54">
+        <v>-0.01655875999787556</v>
+      </c>
+      <c r="J54">
+        <v>0.03258470191964795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02501857433941422</v>
+        <v>0.02829438510607794</v>
       </c>
       <c r="C55">
-        <v>0.123819511524191</v>
+        <v>0.1068767326633626</v>
       </c>
       <c r="D55">
-        <v>-0.07262399463427796</v>
+        <v>-0.04781901798908585</v>
       </c>
       <c r="E55">
-        <v>-0.009188679802573185</v>
+        <v>-0.07028497816229803</v>
       </c>
       <c r="F55">
-        <v>-0.01619731702371876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01439681848397269</v>
+      </c>
+      <c r="G55">
+        <v>-0.02755737851800924</v>
+      </c>
+      <c r="H55">
+        <v>0.0165403363503226</v>
+      </c>
+      <c r="I55">
+        <v>-0.01377139148659131</v>
+      </c>
+      <c r="J55">
+        <v>-0.01473899145870412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04368704417561526</v>
+        <v>0.04491355435369203</v>
       </c>
       <c r="C56">
-        <v>0.1930687736258203</v>
+        <v>0.1754624622767229</v>
       </c>
       <c r="D56">
-        <v>-0.102092890160234</v>
+        <v>-0.06562520514850534</v>
       </c>
       <c r="E56">
-        <v>-0.07863806594113514</v>
+        <v>-0.1294464798048839</v>
       </c>
       <c r="F56">
-        <v>-0.05398961540312776</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.005166477994062559</v>
+      </c>
+      <c r="G56">
+        <v>-0.1132102822808076</v>
+      </c>
+      <c r="H56">
+        <v>0.0001868750936626995</v>
+      </c>
+      <c r="I56">
+        <v>-0.0123732175704099</v>
+      </c>
+      <c r="J56">
+        <v>-0.04553418793145124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.009100839655002161</v>
+        <v>0.008293801549833914</v>
       </c>
       <c r="C58">
-        <v>0.1892469831771159</v>
+        <v>0.1713262527164866</v>
       </c>
       <c r="D58">
-        <v>0.2601304802877129</v>
+        <v>0.01670297321380808</v>
       </c>
       <c r="E58">
-        <v>0.1365125204749255</v>
+        <v>0.2803281179464981</v>
       </c>
       <c r="F58">
-        <v>-0.109960623142478</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.08852175437532847</v>
+      </c>
+      <c r="G58">
+        <v>-0.1640764490559971</v>
+      </c>
+      <c r="H58">
+        <v>0.03600755685542032</v>
+      </c>
+      <c r="I58">
+        <v>0.2511174828497044</v>
+      </c>
+      <c r="J58">
+        <v>-0.2958414605073194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.2664936307131539</v>
+        <v>0.2799003267660067</v>
       </c>
       <c r="C59">
-        <v>-0.01290447889604734</v>
+        <v>-0.03450709168029645</v>
       </c>
       <c r="D59">
-        <v>0.05232044185230994</v>
+        <v>0.000896015253133292</v>
       </c>
       <c r="E59">
-        <v>0.01826428755575276</v>
+        <v>0.04894411895629854</v>
       </c>
       <c r="F59">
-        <v>-0.03411771150415736</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01936252275970312</v>
+      </c>
+      <c r="G59">
+        <v>-0.02516542098702188</v>
+      </c>
+      <c r="H59">
+        <v>-0.02728559006438497</v>
+      </c>
+      <c r="I59">
+        <v>-0.05422564255500665</v>
+      </c>
+      <c r="J59">
+        <v>-0.03058580939533833</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1184643624899948</v>
+        <v>0.1469868896899877</v>
       </c>
       <c r="C60">
-        <v>0.1500817576735657</v>
+        <v>0.1600568285737952</v>
       </c>
       <c r="D60">
-        <v>-0.05901570894283738</v>
+        <v>-0.03787617492645645</v>
       </c>
       <c r="E60">
-        <v>0.02511863859253935</v>
+        <v>-0.03876128533323694</v>
       </c>
       <c r="F60">
-        <v>0.2521862887736721</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.09902367792047635</v>
+      </c>
+      <c r="G60">
+        <v>0.226832644786275</v>
+      </c>
+      <c r="H60">
+        <v>-0.2770531889788651</v>
+      </c>
+      <c r="I60">
+        <v>0.06740680685269231</v>
+      </c>
+      <c r="J60">
+        <v>0.0519194995790239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.004560023556876984</v>
+        <v>0.01512574156956985</v>
       </c>
       <c r="C61">
-        <v>0.09749458315328337</v>
+        <v>0.1068501634725809</v>
       </c>
       <c r="D61">
-        <v>-0.01085018613370459</v>
+        <v>-0.03630048920355378</v>
       </c>
       <c r="E61">
-        <v>0.0404819725559605</v>
+        <v>0.002551938242034193</v>
       </c>
       <c r="F61">
-        <v>0.07139821126878156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01213196526699676</v>
+      </c>
+      <c r="G61">
+        <v>0.0545994609880236</v>
+      </c>
+      <c r="H61">
+        <v>0.04373880623061391</v>
+      </c>
+      <c r="I61">
+        <v>-0.01834802122061229</v>
+      </c>
+      <c r="J61">
+        <v>0.0287804599716669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006725517566472697</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.005682117032484675</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.004517603692862895</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01528651014668005</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.0009675804663467468</v>
+      </c>
+      <c r="G62">
+        <v>0.0186042818284419</v>
+      </c>
+      <c r="H62">
+        <v>0.01191310241456374</v>
+      </c>
+      <c r="I62">
+        <v>-0.001081854495670145</v>
+      </c>
+      <c r="J62">
+        <v>0.009785268705424247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.006782853668565537</v>
+        <v>0.01711954637579944</v>
       </c>
       <c r="C63">
-        <v>0.06324677118073839</v>
+        <v>0.07638476921866157</v>
       </c>
       <c r="D63">
-        <v>0.009173490675905225</v>
+        <v>-0.03955028314768601</v>
       </c>
       <c r="E63">
-        <v>0.03584975363300789</v>
+        <v>0.02175730593620288</v>
       </c>
       <c r="F63">
-        <v>0.04050397573501176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01018281071642066</v>
+      </c>
+      <c r="G63">
+        <v>0.03623650615226666</v>
+      </c>
+      <c r="H63">
+        <v>0.05758393294721367</v>
+      </c>
+      <c r="I63">
+        <v>-0.03256174881505466</v>
+      </c>
+      <c r="J63">
+        <v>0.009789125057541575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.006448009661649344</v>
+        <v>0.01415779841815356</v>
       </c>
       <c r="C64">
-        <v>0.1250486155030148</v>
+        <v>0.1047313422843983</v>
       </c>
       <c r="D64">
-        <v>-0.05666834158978046</v>
+        <v>-0.02913241204054144</v>
       </c>
       <c r="E64">
-        <v>0.02384658593330255</v>
+        <v>0.004522278982266018</v>
       </c>
       <c r="F64">
-        <v>0.03991724540498149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.02835504397364011</v>
+      </c>
+      <c r="G64">
+        <v>0.02323740970148551</v>
+      </c>
+      <c r="H64">
+        <v>0.00998446204676148</v>
+      </c>
+      <c r="I64">
+        <v>-0.03828453197462618</v>
+      </c>
+      <c r="J64">
+        <v>0.01918419183166228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01380746758046626</v>
+        <v>0.02416608715429119</v>
       </c>
       <c r="C65">
-        <v>0.06835758224626938</v>
+        <v>0.08776077849108102</v>
       </c>
       <c r="D65">
-        <v>0.05415894927449501</v>
+        <v>0.003307444416916159</v>
       </c>
       <c r="E65">
-        <v>0.05603564406657142</v>
+        <v>0.07167757789761879</v>
       </c>
       <c r="F65">
-        <v>0.06904375239646499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.007028623803083588</v>
+      </c>
+      <c r="G65">
+        <v>0.1106498325019782</v>
+      </c>
+      <c r="H65">
+        <v>-0.01946931173456528</v>
+      </c>
+      <c r="I65">
+        <v>0.07309279306695041</v>
+      </c>
+      <c r="J65">
+        <v>0.01154990564181528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.003521748450576294</v>
+        <v>0.006043447053891</v>
       </c>
       <c r="C66">
-        <v>0.1580321177604539</v>
+        <v>0.1614851743302145</v>
       </c>
       <c r="D66">
-        <v>0.06437590743131977</v>
+        <v>-0.0201296944175167</v>
       </c>
       <c r="E66">
-        <v>0.07548255903755327</v>
+        <v>0.05016560967507407</v>
       </c>
       <c r="F66">
-        <v>0.06612131409471772</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01140440769714181</v>
+      </c>
+      <c r="G66">
+        <v>0.04120198250847486</v>
+      </c>
+      <c r="H66">
+        <v>0.04089874039547577</v>
+      </c>
+      <c r="I66">
+        <v>0.01799736473450787</v>
+      </c>
+      <c r="J66">
+        <v>0.003838983852045709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.02060901445238262</v>
+        <v>0.01931067991752033</v>
       </c>
       <c r="C67">
-        <v>0.04431976992019063</v>
+        <v>0.05854094904812292</v>
       </c>
       <c r="D67">
-        <v>-0.0254395567388364</v>
+        <v>-0.03029323178895153</v>
       </c>
       <c r="E67">
-        <v>0.03631756432591629</v>
+        <v>0.004579119829131116</v>
       </c>
       <c r="F67">
-        <v>0.01207915395036089</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03115475215080609</v>
+      </c>
+      <c r="G67">
+        <v>0.04407109173734813</v>
+      </c>
+      <c r="H67">
+        <v>0.03262464255005653</v>
+      </c>
+      <c r="I67">
+        <v>-0.05494531163481245</v>
+      </c>
+      <c r="J67">
+        <v>0.02041660281687012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2612652197354146</v>
+        <v>0.288009041926834</v>
       </c>
       <c r="C68">
-        <v>-0.0338239629435932</v>
+        <v>-0.04115145082629285</v>
       </c>
       <c r="D68">
-        <v>0.0496674545570009</v>
+        <v>0.02587593253361937</v>
       </c>
       <c r="E68">
-        <v>0.01965869574103743</v>
+        <v>0.06356090535791098</v>
       </c>
       <c r="F68">
-        <v>-0.06715784317523636</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01577954985689973</v>
+      </c>
+      <c r="G68">
+        <v>-0.04482200658071721</v>
+      </c>
+      <c r="H68">
+        <v>-0.02490584488459295</v>
+      </c>
+      <c r="I68">
+        <v>-0.04816126961845745</v>
+      </c>
+      <c r="J68">
+        <v>-0.01605492564901599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01353554302769983</v>
+        <v>0.0090542764342609</v>
       </c>
       <c r="C69">
-        <v>0.1040276734905035</v>
+        <v>0.07921720065046799</v>
       </c>
       <c r="D69">
-        <v>-0.05548731656213757</v>
+        <v>-0.02389212938275272</v>
       </c>
       <c r="E69">
-        <v>0.01597631777303786</v>
+        <v>-0.01885153333601367</v>
       </c>
       <c r="F69">
-        <v>-0.03462632697167742</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.002221693147109952</v>
+      </c>
+      <c r="G69">
+        <v>0.007903331447585604</v>
+      </c>
+      <c r="H69">
+        <v>0.05568749840838215</v>
+      </c>
+      <c r="I69">
+        <v>-0.0371188856740076</v>
+      </c>
+      <c r="J69">
+        <v>-0.02540982823971184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2803282176297639</v>
+        <v>0.2771458694787594</v>
       </c>
       <c r="C71">
-        <v>-0.0435644360255455</v>
+        <v>-0.06390990907867344</v>
       </c>
       <c r="D71">
-        <v>0.03779141732776382</v>
+        <v>0.01459921357473909</v>
       </c>
       <c r="E71">
-        <v>0.001172435888896529</v>
+        <v>0.03817843139193095</v>
       </c>
       <c r="F71">
-        <v>0.01463344467910377</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03399768271607962</v>
+      </c>
+      <c r="G71">
+        <v>-0.004981440814912481</v>
+      </c>
+      <c r="H71">
+        <v>0.05385246759112364</v>
+      </c>
+      <c r="I71">
+        <v>-0.03687882675352721</v>
+      </c>
+      <c r="J71">
+        <v>-0.1350647393885062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.05120410671824736</v>
+        <v>0.05775710392046155</v>
       </c>
       <c r="C72">
-        <v>0.1836414681758177</v>
+        <v>0.1583582821624033</v>
       </c>
       <c r="D72">
-        <v>-0.02122838662237552</v>
+        <v>-0.01629626707131796</v>
       </c>
       <c r="E72">
-        <v>0.05369561870244491</v>
+        <v>-0.01726332316596834</v>
       </c>
       <c r="F72">
-        <v>0.1200021645774598</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01754399749650734</v>
+      </c>
+      <c r="G72">
+        <v>0.0403632922381712</v>
+      </c>
+      <c r="H72">
+        <v>-0.04615850637250508</v>
+      </c>
+      <c r="I72">
+        <v>0.02879091296927609</v>
+      </c>
+      <c r="J72">
+        <v>0.006970480188722738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.1017097715070018</v>
+        <v>0.1508481624599664</v>
       </c>
       <c r="C73">
-        <v>0.1562478893441738</v>
+        <v>0.1972540584642605</v>
       </c>
       <c r="D73">
-        <v>-0.1054900672132369</v>
+        <v>-0.05897349395968185</v>
       </c>
       <c r="E73">
-        <v>0.02639031912465991</v>
+        <v>-0.1059306492470397</v>
       </c>
       <c r="F73">
-        <v>0.3481063256087049</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1268621891145569</v>
+      </c>
+      <c r="G73">
+        <v>0.3762354565466236</v>
+      </c>
+      <c r="H73">
+        <v>-0.3354934483710902</v>
+      </c>
+      <c r="I73">
+        <v>0.05674245986080133</v>
+      </c>
+      <c r="J73">
+        <v>-0.09695809967608728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02539734168045928</v>
+        <v>0.03501998481283088</v>
       </c>
       <c r="C74">
-        <v>0.1174560214228632</v>
+        <v>0.1149350982140294</v>
       </c>
       <c r="D74">
-        <v>-0.1074343097474648</v>
+        <v>-0.04235569172986561</v>
       </c>
       <c r="E74">
-        <v>-0.04322152903971139</v>
+        <v>-0.0846002295201207</v>
       </c>
       <c r="F74">
-        <v>-0.02201473436316105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.00396686070123382</v>
+      </c>
+      <c r="G74">
+        <v>-0.02995864003493022</v>
+      </c>
+      <c r="H74">
+        <v>0.01091181528220105</v>
+      </c>
+      <c r="I74">
+        <v>-0.01645950198849439</v>
+      </c>
+      <c r="J74">
+        <v>-0.02126537052928443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09132952047153682</v>
+        <v>0.06737238002320153</v>
       </c>
       <c r="C75">
-        <v>0.208377915070818</v>
+        <v>0.1933744654916055</v>
       </c>
       <c r="D75">
-        <v>-0.2235788389493398</v>
+        <v>-0.07938691001694605</v>
       </c>
       <c r="E75">
-        <v>-0.1464113127115519</v>
+        <v>-0.2290049362356928</v>
       </c>
       <c r="F75">
-        <v>-0.086673354050941</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.08819695730608501</v>
+      </c>
+      <c r="G75">
+        <v>-0.1497900523289035</v>
+      </c>
+      <c r="H75">
+        <v>-0.02912409558410048</v>
+      </c>
+      <c r="I75">
+        <v>-0.1009192102143583</v>
+      </c>
+      <c r="J75">
+        <v>-0.01798463675597508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.0369503924383878</v>
+        <v>0.03811187086929176</v>
       </c>
       <c r="C76">
-        <v>0.1445659773991929</v>
+        <v>0.1413253165549729</v>
       </c>
       <c r="D76">
-        <v>-0.100719497410546</v>
+        <v>-0.0678424115717312</v>
       </c>
       <c r="E76">
-        <v>-0.04853235997647699</v>
+        <v>-0.1067048138262926</v>
       </c>
       <c r="F76">
-        <v>3.780551321989051e-05</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.002595280382902435</v>
+      </c>
+      <c r="G76">
+        <v>-0.03081132288671442</v>
+      </c>
+      <c r="H76">
+        <v>0.01020668171230586</v>
+      </c>
+      <c r="I76">
+        <v>-0.04315570409873853</v>
+      </c>
+      <c r="J76">
+        <v>-0.01010287032403781</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.05819611761167209</v>
+        <v>0.03791936384804161</v>
       </c>
       <c r="C77">
-        <v>0.1813062747356658</v>
+        <v>0.2581704718219021</v>
       </c>
       <c r="D77">
-        <v>0.5606855249300556</v>
+        <v>0.9463403229578548</v>
       </c>
       <c r="E77">
-        <v>-0.719914367875558</v>
+        <v>-0.1328712095919436</v>
       </c>
       <c r="F77">
-        <v>0.2312213064772299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02669077797885012</v>
+      </c>
+      <c r="G77">
+        <v>0.01737818946098219</v>
+      </c>
+      <c r="H77">
+        <v>0.04067905537286194</v>
+      </c>
+      <c r="I77">
+        <v>-0.008647730260949848</v>
+      </c>
+      <c r="J77">
+        <v>0.002206824628322608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.026742712758851</v>
+        <v>0.02720135434331841</v>
       </c>
       <c r="C78">
-        <v>0.1599344136947233</v>
+        <v>0.1263003167707018</v>
       </c>
       <c r="D78">
-        <v>0.05235239633355143</v>
+        <v>-0.06861008206739719</v>
       </c>
       <c r="E78">
-        <v>0.096147216897284</v>
+        <v>0.02468356063665266</v>
       </c>
       <c r="F78">
-        <v>-0.1410261104538228</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.02410487516032641</v>
+      </c>
+      <c r="G78">
+        <v>-0.0811192500836739</v>
+      </c>
+      <c r="H78">
+        <v>0.1387858502561199</v>
+      </c>
+      <c r="I78">
+        <v>0.4595377320483612</v>
+      </c>
+      <c r="J78">
+        <v>-0.2120078380883194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05369570131307814</v>
+        <v>0.0580586251565663</v>
       </c>
       <c r="C79">
-        <v>0.243766828137464</v>
+        <v>0.1850532747034279</v>
       </c>
       <c r="D79">
-        <v>-0.1974618807872889</v>
+        <v>-0.06667444770932597</v>
       </c>
       <c r="E79">
-        <v>-0.1380525433840954</v>
+        <v>-0.1834358305187893</v>
       </c>
       <c r="F79">
-        <v>-0.1929097956544774</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01201080255988451</v>
+      </c>
+      <c r="G79">
+        <v>-0.2100441260989249</v>
+      </c>
+      <c r="H79">
+        <v>0.0522976445443582</v>
+      </c>
+      <c r="I79">
+        <v>-0.08222386384130406</v>
+      </c>
+      <c r="J79">
+        <v>-0.1097700818421508</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.01041702413149756</v>
+        <v>0.009836893799589354</v>
       </c>
       <c r="C80">
-        <v>0.05752773083712407</v>
+        <v>0.05737412341641281</v>
       </c>
       <c r="D80">
-        <v>0.0005510621093043865</v>
+        <v>-0.03475144972081869</v>
       </c>
       <c r="E80">
-        <v>0.02775943907276659</v>
+        <v>0.04736673959373679</v>
       </c>
       <c r="F80">
-        <v>0.02871429470754724</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.06502502952545502</v>
+      </c>
+      <c r="G80">
+        <v>0.04490954293791159</v>
+      </c>
+      <c r="H80">
+        <v>-0.04312969230569089</v>
+      </c>
+      <c r="I80">
+        <v>-0.08156732989868587</v>
+      </c>
+      <c r="J80">
+        <v>0.009482611260644888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.03246116194203427</v>
+        <v>0.02136738568699981</v>
       </c>
       <c r="C81">
-        <v>0.1263561644912231</v>
+        <v>0.1171481845187572</v>
       </c>
       <c r="D81">
-        <v>-0.1462319620765097</v>
+        <v>-0.04410943018251079</v>
       </c>
       <c r="E81">
-        <v>-0.09289147488867228</v>
+        <v>-0.1060135514016976</v>
       </c>
       <c r="F81">
-        <v>-0.05642193767836307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01404399989396815</v>
+      </c>
+      <c r="G81">
+        <v>-0.09165777434150266</v>
+      </c>
+      <c r="H81">
+        <v>0.06383751739450852</v>
+      </c>
+      <c r="I81">
+        <v>-0.09368437130492094</v>
+      </c>
+      <c r="J81">
+        <v>-0.03344068754935315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05184001805428522</v>
+        <v>0.04744122351573924</v>
       </c>
       <c r="C82">
-        <v>0.1542075407152518</v>
+        <v>0.1325732985770903</v>
       </c>
       <c r="D82">
-        <v>-0.1505209103381744</v>
+        <v>-0.06792204702143863</v>
       </c>
       <c r="E82">
-        <v>-0.06176256160051851</v>
+        <v>-0.1281738897231835</v>
       </c>
       <c r="F82">
-        <v>-0.01363284766478829</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>7.608461267247085e-05</v>
+      </c>
+      <c r="G82">
+        <v>-0.06264091678649736</v>
+      </c>
+      <c r="H82">
+        <v>0.02574130995044617</v>
+      </c>
+      <c r="I82">
+        <v>-0.06270000125161007</v>
+      </c>
+      <c r="J82">
+        <v>-0.03875506111226712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.008733180573976188</v>
+        <v>0.002468417904031463</v>
       </c>
       <c r="C83">
-        <v>0.04825325163731032</v>
+        <v>0.01036664346049778</v>
       </c>
       <c r="D83">
-        <v>0.1534705152598871</v>
+        <v>0.04970472077115957</v>
       </c>
       <c r="E83">
-        <v>-0.167921370452932</v>
+        <v>0.1203481805784607</v>
       </c>
       <c r="F83">
-        <v>-0.5145851276181612</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.9016340259454566</v>
+      </c>
+      <c r="G83">
+        <v>-0.3111913113871558</v>
+      </c>
+      <c r="H83">
+        <v>-0.0681997645329057</v>
+      </c>
+      <c r="I83">
+        <v>-0.06681633355145258</v>
+      </c>
+      <c r="J83">
+        <v>-0.01857979852511179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.001608705551332185</v>
+        <v>-0.001286910068500379</v>
       </c>
       <c r="C84">
-        <v>0.03297297447095513</v>
+        <v>0.03808578604438933</v>
       </c>
       <c r="D84">
-        <v>0.03294831246377675</v>
+        <v>-0.04805578907163201</v>
       </c>
       <c r="E84">
-        <v>0.09250796123504867</v>
+        <v>0.07387552252642156</v>
       </c>
       <c r="F84">
-        <v>-0.03404549778313005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.05148128575785141</v>
+      </c>
+      <c r="G84">
+        <v>-0.0374553485526955</v>
+      </c>
+      <c r="H84">
+        <v>0.07767696152968338</v>
+      </c>
+      <c r="I84">
+        <v>0.008644093171931638</v>
+      </c>
+      <c r="J84">
+        <v>0.1029941429931067</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.03414867807258266</v>
+        <v>0.03035608681389919</v>
       </c>
       <c r="C85">
-        <v>0.1666909841622261</v>
+        <v>0.1398244127683082</v>
       </c>
       <c r="D85">
-        <v>-0.1564792780733908</v>
+        <v>-0.07621807704150708</v>
       </c>
       <c r="E85">
-        <v>-0.1023030526721482</v>
+        <v>-0.1786857158281282</v>
       </c>
       <c r="F85">
-        <v>-0.1384209816196824</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.01441660468008942</v>
+      </c>
+      <c r="G85">
+        <v>-0.1278946558973015</v>
+      </c>
+      <c r="H85">
+        <v>0.01300189977072911</v>
+      </c>
+      <c r="I85">
+        <v>-0.1008412298679026</v>
+      </c>
+      <c r="J85">
+        <v>-0.05107718909524394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.03947535800959133</v>
+        <v>0.02003530002542551</v>
       </c>
       <c r="C86">
-        <v>0.05263419362769271</v>
+        <v>0.07297850200762324</v>
       </c>
       <c r="D86">
-        <v>0.07695718816687684</v>
+        <v>-0.007780595839355711</v>
       </c>
       <c r="E86">
-        <v>0.01098771634182532</v>
+        <v>0.06098355589286607</v>
       </c>
       <c r="F86">
-        <v>0.04211603283444202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.04969368273936361</v>
+      </c>
+      <c r="G86">
+        <v>-0.0682147782224491</v>
+      </c>
+      <c r="H86">
+        <v>0.08266292632758197</v>
+      </c>
+      <c r="I86">
+        <v>0.03386807829469347</v>
+      </c>
+      <c r="J86">
+        <v>-0.1911106824806711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03279573768179267</v>
+        <v>0.01782314213869857</v>
       </c>
       <c r="C87">
-        <v>0.1290937143174923</v>
+        <v>0.1233966868909173</v>
       </c>
       <c r="D87">
-        <v>0.1081152940581451</v>
+        <v>0.01156380008587741</v>
       </c>
       <c r="E87">
-        <v>0.1019445309696879</v>
+        <v>0.1026903931298472</v>
       </c>
       <c r="F87">
-        <v>0.001170532265254282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02565260382179189</v>
+      </c>
+      <c r="G87">
+        <v>-0.008807405244832398</v>
+      </c>
+      <c r="H87">
+        <v>0.02736468135955224</v>
+      </c>
+      <c r="I87">
+        <v>0.1782731670957667</v>
+      </c>
+      <c r="J87">
+        <v>0.03935493760473333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.01870882330885877</v>
+        <v>0.03460583138121683</v>
       </c>
       <c r="C88">
-        <v>0.07463576072173954</v>
+        <v>0.08203392343236511</v>
       </c>
       <c r="D88">
-        <v>-0.07383998478628082</v>
+        <v>-0.03421533466492777</v>
       </c>
       <c r="E88">
-        <v>-0.01081092790477627</v>
+        <v>-0.01943356487465438</v>
       </c>
       <c r="F88">
-        <v>0.03001624870045987</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.004597427365605995</v>
+      </c>
+      <c r="G88">
+        <v>0.02431225399149319</v>
+      </c>
+      <c r="H88">
+        <v>-0.006880855427772724</v>
+      </c>
+      <c r="I88">
+        <v>-0.08429448918098656</v>
+      </c>
+      <c r="J88">
+        <v>0.03332373896009232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.4125472562011344</v>
+        <v>0.3936529868650296</v>
       </c>
       <c r="C89">
-        <v>-0.09373125747991058</v>
+        <v>-0.1121476362595321</v>
       </c>
       <c r="D89">
-        <v>0.02362488119439283</v>
+        <v>0.03684886644106011</v>
       </c>
       <c r="E89">
-        <v>0.1820762049105729</v>
+        <v>0.0719425384589483</v>
       </c>
       <c r="F89">
-        <v>-0.07969285204343776</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.05944464780047756</v>
+      </c>
+      <c r="G89">
+        <v>-0.03406924814359184</v>
+      </c>
+      <c r="H89">
+        <v>0.08819060359697517</v>
+      </c>
+      <c r="I89">
+        <v>0.4801065111123577</v>
+      </c>
+      <c r="J89">
+        <v>0.4420400393864322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3196957412436924</v>
+        <v>0.3219739114361355</v>
       </c>
       <c r="C90">
-        <v>-0.04111656511039632</v>
+        <v>-0.06312598629324945</v>
       </c>
       <c r="D90">
-        <v>0.03229663847471841</v>
+        <v>0.003397373112986962</v>
       </c>
       <c r="E90">
-        <v>0.0006768668041609406</v>
+        <v>0.02718933629256127</v>
       </c>
       <c r="F90">
-        <v>-0.03227301056066199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.005633012550589519</v>
+      </c>
+      <c r="G90">
+        <v>-0.02998307452932168</v>
+      </c>
+      <c r="H90">
+        <v>-0.01801683523759121</v>
+      </c>
+      <c r="I90">
+        <v>-0.09875123454505541</v>
+      </c>
+      <c r="J90">
+        <v>-0.04881632503135361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.03944779574065108</v>
+        <v>0.05053415430283852</v>
       </c>
       <c r="C91">
-        <v>0.1351654059069586</v>
+        <v>0.1165543441566378</v>
       </c>
       <c r="D91">
-        <v>-0.09304588438316878</v>
+        <v>-0.03636932311064061</v>
       </c>
       <c r="E91">
-        <v>-0.06364271654850036</v>
+        <v>-0.09128515182298906</v>
       </c>
       <c r="F91">
-        <v>-0.06263708448006815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.02856372317319803</v>
+      </c>
+      <c r="G91">
+        <v>-0.07494066452926931</v>
+      </c>
+      <c r="H91">
+        <v>0.007445738782004646</v>
+      </c>
+      <c r="I91">
+        <v>-0.0451044073020237</v>
+      </c>
+      <c r="J91">
+        <v>0.006674811444308228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.358367636340737</v>
+        <v>0.3522937847488812</v>
       </c>
       <c r="C92">
-        <v>-0.0991367069356137</v>
+        <v>-0.1156866554102363</v>
       </c>
       <c r="D92">
-        <v>0.04137388751474672</v>
+        <v>0.03479321085793675</v>
       </c>
       <c r="E92">
-        <v>0.01587188916995973</v>
+        <v>0.06683589015665724</v>
       </c>
       <c r="F92">
-        <v>0.0273226441955147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09739029788289474</v>
+      </c>
+      <c r="G92">
+        <v>-0.01083252183677344</v>
+      </c>
+      <c r="H92">
+        <v>0.04959207794057482</v>
+      </c>
+      <c r="I92">
+        <v>-0.1328110595972302</v>
+      </c>
+      <c r="J92">
+        <v>-0.08196613880516752</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3347595003895957</v>
+        <v>0.3242682344076863</v>
       </c>
       <c r="C93">
-        <v>-0.08452871576898544</v>
+        <v>-0.1094520288667744</v>
       </c>
       <c r="D93">
-        <v>-0.0281499616607158</v>
+        <v>-0.01163229744221563</v>
       </c>
       <c r="E93">
-        <v>-0.01072402929016358</v>
+        <v>-0.002690989413814742</v>
       </c>
       <c r="F93">
-        <v>-0.002901764746933148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01599630233724385</v>
+      </c>
+      <c r="G93">
+        <v>-0.03296255521302125</v>
+      </c>
+      <c r="H93">
+        <v>0.03693777770794335</v>
+      </c>
+      <c r="I93">
+        <v>-0.06916740250471266</v>
+      </c>
+      <c r="J93">
+        <v>-0.09609393810074805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.08406896653917327</v>
+        <v>0.08190173392438753</v>
       </c>
       <c r="C94">
-        <v>0.2191149579888712</v>
+        <v>0.1961523012903219</v>
       </c>
       <c r="D94">
-        <v>-0.251523496049107</v>
+        <v>-0.09988915232753218</v>
       </c>
       <c r="E94">
-        <v>-0.142557312245486</v>
+        <v>-0.3112770750853153</v>
       </c>
       <c r="F94">
-        <v>-0.2290572643053409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.06175830204216829</v>
+      </c>
+      <c r="G94">
+        <v>-0.3766487041007278</v>
+      </c>
+      <c r="H94">
+        <v>-0.05195418396649964</v>
+      </c>
+      <c r="I94">
+        <v>0.1393757217730202</v>
+      </c>
+      <c r="J94">
+        <v>0.4324111490270595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02533411022693223</v>
+        <v>0.03204952818204441</v>
       </c>
       <c r="C95">
-        <v>0.06716824935727238</v>
+        <v>0.110909981943551</v>
       </c>
       <c r="D95">
-        <v>-0.008848555784492935</v>
+        <v>-0.02100396881990147</v>
       </c>
       <c r="E95">
-        <v>0.009022020048090435</v>
+        <v>0.003438965457562577</v>
       </c>
       <c r="F95">
-        <v>0.1492146751609559</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.004540449100936408</v>
+      </c>
+      <c r="G95">
+        <v>0.1392491516776517</v>
+      </c>
+      <c r="H95">
+        <v>0.02942524351993367</v>
+      </c>
+      <c r="I95">
+        <v>-0.0575267367166272</v>
+      </c>
+      <c r="J95">
+        <v>0.1948442068769511</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.005458646164574488</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.009719946215227118</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02144247243304149</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.014215320083445</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.007972548010064884</v>
+      </c>
+      <c r="G97">
+        <v>0.03317561224293248</v>
+      </c>
+      <c r="H97">
+        <v>-0.007580775207328119</v>
+      </c>
+      <c r="I97">
+        <v>-0.005404715881357393</v>
+      </c>
+      <c r="J97">
+        <v>-0.02000828349725797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.08375444502198429</v>
+        <v>0.1315754716201631</v>
       </c>
       <c r="C98">
-        <v>0.1510864664791559</v>
+        <v>0.1693747438510961</v>
       </c>
       <c r="D98">
-        <v>-0.04358069707205301</v>
+        <v>-0.07053679482951218</v>
       </c>
       <c r="E98">
-        <v>0.04237688280452118</v>
+        <v>-0.07436561920685887</v>
       </c>
       <c r="F98">
-        <v>0.2592985106337868</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.08666714515762926</v>
+      </c>
+      <c r="G98">
+        <v>0.3316835583382059</v>
+      </c>
+      <c r="H98">
+        <v>-0.3560568443466895</v>
+      </c>
+      <c r="I98">
+        <v>0.1279652823513546</v>
+      </c>
+      <c r="J98">
+        <v>-0.07342167195283719</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.003063070895641475</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.009961653523120209</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.01378895385941517</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.008451550464832969</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.008670261271316749</v>
+      </c>
+      <c r="G99">
+        <v>-0.003285096374394336</v>
+      </c>
+      <c r="H99">
+        <v>0.04751827609502272</v>
+      </c>
+      <c r="I99">
+        <v>0.003439325851224618</v>
+      </c>
+      <c r="J99">
+        <v>-0.002515794176429251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.000147692673035833</v>
+        <v>0.006874893196602461</v>
       </c>
       <c r="C101">
-        <v>0.05831589593653659</v>
+        <v>0.07968629849217373</v>
       </c>
       <c r="D101">
-        <v>0.05320401243664908</v>
+        <v>-0.02234303017555626</v>
       </c>
       <c r="E101">
-        <v>0.08895802513071911</v>
+        <v>0.122338735326346</v>
       </c>
       <c r="F101">
-        <v>0.0738322435033774</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.05784165126105513</v>
+      </c>
+      <c r="G101">
+        <v>0.1551582626513568</v>
+      </c>
+      <c r="H101">
+        <v>0.2580043813201074</v>
+      </c>
+      <c r="I101">
+        <v>-0.09289287890922707</v>
+      </c>
+      <c r="J101">
+        <v>0.22958985141859</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.01711681039871218</v>
+        <v>0.007051292144786121</v>
       </c>
       <c r="C102">
-        <v>0.08148741015167293</v>
+        <v>0.03940516386120716</v>
       </c>
       <c r="D102">
-        <v>-0.05579667332162175</v>
+        <v>-0.01273060343745746</v>
       </c>
       <c r="E102">
-        <v>-0.04077801368601507</v>
+        <v>-0.04263089016496516</v>
       </c>
       <c r="F102">
-        <v>-0.03971885810375355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.008223981256845056</v>
+      </c>
+      <c r="G102">
+        <v>-0.04139244396944117</v>
+      </c>
+      <c r="H102">
+        <v>0.01438360350349844</v>
+      </c>
+      <c r="I102">
+        <v>-0.003701778711768155</v>
+      </c>
+      <c r="J102">
+        <v>-0.005806141915607732</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
